--- a/target/test-classes/Data.xlsx
+++ b/target/test-classes/Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Browser</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>jatango.com/live/september-blooms/purse381</t>
+  </si>
+  <si>
+    <t>Ladiesbag667</t>
   </si>
 </sst>
 </file>
@@ -694,7 +697,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Data.xlsx
+++ b/target/test-classes/Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Browser</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Ladiesbag667</t>
+  </si>
+  <si>
+    <t>Ladiesbag655</t>
   </si>
 </sst>
 </file>
@@ -697,7 +700,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Data.xlsx
+++ b/target/test-classes/Data.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Browser</t>
   </si>
@@ -116,36 +116,20 @@
     <t>Swift@6018</t>
   </si>
   <si>
-    <t>MyShopsDashBoard</t>
-  </si>
-  <si>
-    <t>september blooms</t>
-  </si>
-  <si>
-    <t>Ladiesbag935</t>
-  </si>
-  <si>
-    <t>jatango.com/live/september-blooms/purse210</t>
-  </si>
-  <si>
-    <t>Ladiesbag299</t>
-  </si>
-  <si>
     <t>jatango.com/live/september-blooms/purse381</t>
   </si>
   <si>
-    <t>Ladiesbag667</t>
-  </si>
-  <si>
     <t>Ladiesbag655</t>
+  </si>
+  <si>
+    <t>Captcha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,13 +162,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -263,9 +240,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -547,47 +525,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.90625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.453125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.26953125" collapsed="true"/>
+    <col min="1" max="1" width="10.08984375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.90625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -596,7 +571,7 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1"/>
@@ -605,17 +580,20 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -637,12 +615,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.26953125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.1796875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.54296875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.60546875" collapsed="true"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -700,7 +678,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -719,8 +697,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="43.1796875" collapsed="true"/>
+    <col min="1" max="1" width="14.90625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.1796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -736,7 +714,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Data.xlsx
+++ b/target/test-classes/Data.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Browser</t>
   </si>
@@ -123,12 +123,19 @@
   </si>
   <si>
     <t>Captcha</t>
+  </si>
+  <si>
+    <t>Ladiesbag297</t>
+  </si>
+  <si>
+    <t>jatango.com/live/september-blooms/purse272</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -533,9 +540,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.90625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.90625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -615,12 +622,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.26953125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.1796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.60546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -678,7 +685,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -697,8 +704,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="43.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -714,7 +721,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Data.xlsx
+++ b/target/test-classes/Data.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -116,27 +116,26 @@
     <t>Swift@6018</t>
   </si>
   <si>
-    <t>jatango.com/live/september-blooms/purse381</t>
-  </si>
-  <si>
-    <t>Ladiesbag655</t>
-  </si>
-  <si>
     <t>Captcha</t>
   </si>
   <si>
-    <t>Ladiesbag297</t>
-  </si>
-  <si>
-    <t>jatango.com/live/september-blooms/purse272</t>
+    <t>Ladiesbag981</t>
+  </si>
+  <si>
+    <t>jatango.com/live/september-blooms/purse120</t>
+  </si>
+  <si>
+    <t>MyShopsDashBoard</t>
+  </si>
+  <si>
+    <t>september blooms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +168,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF22191B"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -251,6 +264,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -532,20 +549,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.90625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.453125" collapsed="true"/>
+    <col min="1" max="1" width="10.08984375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.90625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -556,10 +574,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -570,8 +591,11 @@
         <v>30</v>
       </c>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -582,24 +606,27 @@
         <v>8</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="13"/>
     </row>
   </sheetData>
@@ -622,12 +649,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.26953125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.1796875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.54296875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.60546875" collapsed="true"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -685,7 +712,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -704,8 +731,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="43.1796875" collapsed="true"/>
+    <col min="1" max="1" width="14.90625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.1796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -721,7 +748,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Data.xlsx
+++ b/target/test-classes/Data.xlsx
@@ -119,16 +119,16 @@
     <t>Captcha</t>
   </si>
   <si>
-    <t>Ladiesbag981</t>
-  </si>
-  <si>
-    <t>jatango.com/live/september-blooms/purse120</t>
-  </si>
-  <si>
     <t>MyShopsDashBoard</t>
   </si>
   <si>
-    <t>september blooms</t>
+    <t>Ladiesbag108</t>
+  </si>
+  <si>
+    <t>jatango.com/live/september-blooms/purse873</t>
+  </si>
+  <si>
+    <t>september shop</t>
   </si>
 </sst>
 </file>
@@ -180,11 +180,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF22191B"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -267,7 +266,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -552,7 +551,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,7 +559,7 @@
     <col min="1" max="1" width="10.08984375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="29.90625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="20.453125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -577,10 +576,10 @@
         <v>31</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="59.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -712,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +747,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Data.xlsx
+++ b/target/test-classes/Data.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Browser</t>
   </si>
@@ -128,13 +128,20 @@
     <t>jatango.com/live/september-blooms/purse873</t>
   </si>
   <si>
-    <t>september shop</t>
+    <t>september blooms</t>
+  </si>
+  <si>
+    <t>jatango.com/live/september-blooms/purse63</t>
+  </si>
+  <si>
+    <t>jatango.com/live/september-blooms/purse523</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +273,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -551,15 +558,15 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.90625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.90625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.453125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -648,12 +655,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.26953125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.1796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -730,8 +737,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.0625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -747,7 +754,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Data.xlsx
+++ b/target/test-classes/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="10430"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="10430" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Browser</t>
   </si>
@@ -104,12 +104,6 @@
     <t>LiveURLLink</t>
   </si>
   <si>
-    <t>purse</t>
-  </si>
-  <si>
-    <t>Ladiesbag</t>
-  </si>
-  <si>
     <t>latestsaiseller@yopmail.com</t>
   </si>
   <si>
@@ -125,23 +119,22 @@
     <t>Ladiesbag108</t>
   </si>
   <si>
-    <t>jatango.com/live/september-blooms/purse873</t>
-  </si>
-  <si>
     <t>september blooms</t>
   </si>
   <si>
-    <t>jatango.com/live/september-blooms/purse63</t>
-  </si>
-  <si>
-    <t>jatango.com/live/september-blooms/purse523</t>
+    <t>jatango.com/live/september-blooms/purse701</t>
+  </si>
+  <si>
+    <t>PurseLadies</t>
+  </si>
+  <si>
+    <t>HandBag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -557,16 +550,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.90625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.453125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.1796875" collapsed="true"/>
+    <col min="1" max="1" width="10.08984375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.90625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.1796875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -580,10 +573,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="59.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -591,14 +584,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -650,17 +643,17 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.26953125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.1796875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.54296875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.6328125" collapsed="true"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -694,7 +687,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -718,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -731,14 +724,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.0625" collapsed="true"/>
+    <col min="1" max="1" width="14.90625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.1796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -751,10 +744,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Data.xlsx
+++ b/target/test-classes/Data.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Browser</t>
   </si>
@@ -129,12 +129,22 @@
   </si>
   <si>
     <t>HandBag</t>
+  </si>
+  <si>
+    <t>PurseLadies90</t>
+  </si>
+  <si>
+    <t>jatango.com/live/september-blooms/handbag392</t>
+  </si>
+  <si>
+    <t>https://jatango.com/live/september-blooms/handbag392</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,10 +566,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.90625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.90625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.453125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -648,12 +658,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.26953125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.1796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.60546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -711,7 +721,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -730,8 +740,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="45.91015625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -747,7 +757,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Data.xlsx
+++ b/target/test-classes/Data.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Browser</t>
   </si>
@@ -116,25 +116,35 @@
     <t>MyShopsDashBoard</t>
   </si>
   <si>
-    <t>Ladiesbag108</t>
-  </si>
-  <si>
     <t>september blooms</t>
   </si>
   <si>
-    <t>jatango.com/live/september-blooms/purse701</t>
-  </si>
-  <si>
     <t>PurseLadies</t>
   </si>
   <si>
     <t>HandBag</t>
+  </si>
+  <si>
+    <t>PurseLadies90</t>
+  </si>
+  <si>
+    <t>https://jatango.com/live/september-blooms/handbag891</t>
+  </si>
+  <si>
+    <t>jatango.com/live/september-blooms/handbag891</t>
+  </si>
+  <si>
+    <t>jatango.com/live/september-blooms/handbag906</t>
+  </si>
+  <si>
+    <t>https://jatango.com/live/september-blooms/handbag906</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,10 +566,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.90625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.90625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.453125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -591,7 +601,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -648,12 +658,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.26953125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.1796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -687,7 +697,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -711,7 +721,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -722,16 +732,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="52.921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -744,14 +754,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://jatango.com/live/september-blooms/handbag891"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>